--- a/arquivos de bases/politicas_empreendedorismo.xlsx
+++ b/arquivos de bases/politicas_empreendedorismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/R_empreendedorismo1/arquivos de bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81DEFA0A-0601-4A4D-8D86-698450E92CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C9BA804-8B0A-492F-B43A-584D1E5FAE22}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{81DEFA0A-0601-4A4D-8D86-698450E92CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B03265-0EBB-41A7-A0B7-24C4586A546C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F888F76-689E-46C4-98A1-EE5E4332A479}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="14">
   <si>
     <t>CodMun</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -445,66 +448,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9EF7B8-D581-43B8-9206-E05F04789E26}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>1100155</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -513,27 +519,30 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1100189</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -542,51 +551,57 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>1100205</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>1100254</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -606,47 +621,53 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>1100262</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>1200385</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -655,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -666,14 +687,17 @@
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>1200393</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -681,10 +705,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -695,19 +719,22 @@
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>1200401</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -724,13 +751,16 @@
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>1200427</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -753,13 +783,16 @@
       <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>1200435</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -782,22 +815,25 @@
       <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>1200450</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -811,42 +847,48 @@
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>1200500</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>1200609</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -869,19 +911,22 @@
       <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>1200708</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -898,14 +943,17 @@
       <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>1200807</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -916,10 +964,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
@@ -927,45 +975,51 @@
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>1302603</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>1300680</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -980,19 +1034,22 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>1300706</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,16 +1069,19 @@
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>1400027</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>11</v>
@@ -1043,72 +1103,81 @@
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>1400050</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>1400100</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>1500800</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1130,28 +1199,31 @@
       <c r="I23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="J23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>1500206</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>11</v>
@@ -1159,14 +1231,17 @@
       <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="J24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>1500305</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,22 +1255,25 @@
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>1501402</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1217,28 +1295,31 @@
       <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="J26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>1506807</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
@@ -1246,19 +1327,22 @@
       <c r="I27" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>1600279</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>11</v>
@@ -1267,65 +1351,71 @@
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>1600303</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>2111300</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
@@ -1333,14 +1423,17 @@
       <c r="I30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>2111409</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,16 +1453,19 @@
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>2111508</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>11</v>
@@ -1391,25 +1487,28 @@
       <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="J32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
         <v>2211001</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
@@ -1418,24 +1517,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
         <v>2200608</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1447,18 +1549,21 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
         <v>2303659</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -1476,30 +1581,33 @@
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
         <v>2303709</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
@@ -1507,14 +1615,17 @@
       <c r="I36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
         <v>2304350</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1522,28 +1633,31 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
         <v>2304400</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,28 +1665,31 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
         <v>2408003</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1586,36 +1703,39 @@
         <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
         <v>2408102</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>11</v>
@@ -1623,57 +1743,63 @@
       <c r="I40" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="J40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
         <v>2409332</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="J41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
         <v>2503753</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>11</v>
@@ -1681,22 +1807,25 @@
       <c r="I42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="J42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
         <v>2504009</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
@@ -1708,24 +1837,27 @@
         <v>11</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
         <v>2507507</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>11</v>
@@ -1739,14 +1871,17 @@
       <c r="I44" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="J44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
         <v>2507705</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1760,33 +1895,36 @@
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
         <v>2604007</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -1797,43 +1935,49 @@
       <c r="I46" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="J46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
         <v>2604106</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
         <v>2607901</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
@@ -1850,62 +1994,68 @@
         <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+        <v>11</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
         <v>2607950</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
         <v>2609600</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>11</v>
@@ -1913,14 +2063,17 @@
       <c r="I50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="J50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
         <v>2610608</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>11</v>
@@ -1942,14 +2095,17 @@
       <c r="I51" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
         <v>2610707</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
@@ -1957,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>11</v>
@@ -1971,28 +2127,31 @@
       <c r="I52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="J52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
         <v>2611101</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>11</v>
@@ -2000,14 +2159,17 @@
       <c r="I53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="J53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
         <v>2611606</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
@@ -2021,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>11</v>
@@ -2029,28 +2191,31 @@
       <c r="I54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
         <v>2704203</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>11</v>
@@ -2058,28 +2223,31 @@
       <c r="I55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="J55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
         <v>2704302</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>11</v>
@@ -2087,22 +2255,25 @@
       <c r="I56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="J56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
         <v>2800308</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>11</v>
@@ -2116,48 +2287,54 @@
       <c r="I57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
         <v>2800407</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
         <v>2905602</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
@@ -2166,22 +2343,25 @@
         <v>11</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="J59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
         <v>2905701</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2201,16 +2381,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
         <v>2910800</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2218,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>11</v>
@@ -2232,48 +2415,54 @@
       <c r="I61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="J61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
         <v>2927309</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
         <v>2927408</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>10</v>
@@ -2282,21 +2471,24 @@
         <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
         <v>2933307</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
@@ -2319,22 +2511,25 @@
       <c r="I64" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="J64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
         <v>3106200</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
@@ -2348,22 +2543,25 @@
       <c r="I65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="J65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
         <v>3106309</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
@@ -2377,14 +2575,17 @@
       <c r="I66" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="J66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
         <v>3106655</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2398,24 +2599,27 @@
         <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="J67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
         <v>3106705</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -2435,25 +2639,28 @@
       <c r="I68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="J68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
         <v>3118601</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>10</v>
@@ -2462,18 +2669,21 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
         <v>3136702</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -2493,14 +2703,17 @@
       <c r="I70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="J70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
         <v>3143302</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
@@ -2520,30 +2733,33 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
         <v>3143401</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>11</v>
@@ -2551,72 +2767,81 @@
       <c r="I72" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="J72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
         <v>3154606</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="J73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
         <v>3170107</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+        <v>10</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
         <v>3170206</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
@@ -2638,22 +2863,25 @@
       <c r="I75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="J75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
         <v>3201209</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>11</v>
@@ -2667,14 +2895,17 @@
       <c r="I76" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="J76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
         <v>3201308</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>11</v>
@@ -2696,14 +2927,17 @@
       <c r="I77" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="J77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
         <v>3205002</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2951,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>11</v>
@@ -2725,22 +2959,25 @@
       <c r="I78" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="J78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
         <v>3205176</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>11</v>
@@ -2749,19 +2986,22 @@
         <v>11</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+        <v>10</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
         <v>3205200</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
@@ -2772,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -2783,14 +3023,17 @@
       <c r="I80" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="J80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
         <v>3205309</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
@@ -2798,13 +3041,13 @@
         <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>11</v>
@@ -2812,14 +3055,17 @@
       <c r="I81" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="J81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
         <v>3300456</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2839,21 +3085,24 @@
         <v>11</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+        <v>11</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
         <v>3300506</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>11</v>
@@ -2870,16 +3119,19 @@
       <c r="I83" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="J83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
         <v>3301009</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>10</v>
@@ -2891,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>11</v>
@@ -2899,14 +3151,17 @@
       <c r="I84" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="J84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
         <v>3301108</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
@@ -2914,13 +3169,13 @@
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>11</v>
@@ -2928,22 +3183,25 @@
       <c r="I85" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="J85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
         <v>3301702</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>11</v>
@@ -2957,16 +3215,19 @@
       <c r="I86" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="J86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
         <v>3301801</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -2986,28 +3247,31 @@
       <c r="I87" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="J87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
         <v>3303302</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>11</v>
@@ -3015,43 +3279,49 @@
       <c r="I88" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="J88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
         <v>3303401</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+        <v>11</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
         <v>3303500</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
       </c>
@@ -3059,10 +3329,10 @@
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>11</v>
@@ -3071,45 +3341,51 @@
         <v>11</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+        <v>11</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
         <v>3303609</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="J91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
         <v>3303906</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
@@ -3117,13 +3393,13 @@
         <v>10</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>11</v>
@@ -3131,72 +3407,81 @@
       <c r="I92" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="J92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
         <v>3303955</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="J93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
         <v>3304524</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="J94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
         <v>3304557</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3213,18 +3498,21 @@
         <v>10</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <v>3304904</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>9</v>
@@ -3247,14 +3535,17 @@
       <c r="I96" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="J96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
         <v>3305000</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
@@ -3265,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
@@ -3276,14 +3567,17 @@
       <c r="I97" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="J97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
         <v>3305109</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
@@ -3303,16 +3597,19 @@
         <v>11</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+        <v>11</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
         <v>3305133</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
@@ -3329,24 +3626,27 @@
         <v>11</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+        <v>10</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
         <v>3505906</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>11</v>
@@ -3363,22 +3663,25 @@
       <c r="I100" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="J100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
         <v>3506003</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>11</v>
@@ -3392,14 +3695,17 @@
       <c r="I101" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="J101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
         <v>3509502</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>10</v>
       </c>
@@ -3413,7 +3719,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>11</v>
@@ -3421,28 +3727,31 @@
       <c r="I102" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="J102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
         <v>3509601</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>11</v>
@@ -3450,13 +3759,16 @@
       <c r="I103" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="J103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
         <v>3510609</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>9</v>
@@ -3479,43 +3791,49 @@
       <c r="I104" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="J104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
         <v>3510708</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="J105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
         <v>3513702</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
       </c>
@@ -3529,36 +3847,39 @@
         <v>11</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+        <v>10</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
         <v>3513801</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>11</v>
@@ -3566,28 +3887,31 @@
       <c r="I107" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="J107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
         <v>3516200</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>11</v>
@@ -3595,28 +3919,31 @@
       <c r="I108" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="J108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
         <v>3516309</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>11</v>
@@ -3624,54 +3951,60 @@
       <c r="I109" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="J109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
         <v>3518701</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+        <v>11</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
         <v>3518800</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>11</v>
@@ -3682,25 +4015,28 @@
       <c r="I111" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="J111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
         <v>3523107</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>11</v>
@@ -3709,16 +4045,19 @@
         <v>11</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+        <v>11</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
         <v>3523206</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>11</v>
       </c>
@@ -3732,21 +4071,24 @@
         <v>11</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="J113" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
         <v>3525904</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>9</v>
@@ -3769,14 +4111,17 @@
       <c r="I114" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="J114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
         <v>3526001</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
       </c>
@@ -3790,65 +4135,71 @@
         <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="J115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
         <v>3526803</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+        <v>10</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
         <v>3526902</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>11</v>
@@ -3856,14 +4207,17 @@
       <c r="I117" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="J117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
         <v>3529302</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>11</v>
       </c>
@@ -3877,22 +4231,25 @@
         <v>11</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+        <v>10</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
         <v>3529401</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
       </c>
@@ -3912,16 +4269,19 @@
         <v>11</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+        <v>11</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
         <v>3530508</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>11</v>
@@ -3943,14 +4303,17 @@
       <c r="I120" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="J120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
         <v>3530607</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>10</v>
       </c>
@@ -3964,59 +4327,65 @@
         <v>10</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+        <v>11</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
         <v>3534302</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="J122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
         <v>3534401</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>11</v>
@@ -4030,14 +4399,17 @@
       <c r="I123" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="J123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
         <v>3538600</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C124" s="1" t="s">
         <v>10</v>
       </c>
@@ -4045,13 +4417,13 @@
         <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>11</v>
@@ -4059,43 +4431,49 @@
       <c r="I124" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="J124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
         <v>3538709</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+        <v>10</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
         <v>3543303</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C126" s="1" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>11</v>
@@ -4117,45 +4495,51 @@
       <c r="I126" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="J126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
         <v>3543402</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+        <v>10</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
         <v>3547700</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>11</v>
@@ -4175,22 +4559,25 @@
       <c r="I128" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="J128" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
         <v>3547809</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>11</v>
@@ -4202,18 +4589,21 @@
         <v>11</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+        <v>11</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
         <v>3548401</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -4233,14 +4623,17 @@
       <c r="I130" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="J130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
         <v>3548500</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C131" s="1" t="s">
         <v>10</v>
       </c>
@@ -4248,13 +4641,13 @@
         <v>10</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>11</v>
@@ -4262,28 +4655,31 @@
       <c r="I131" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="J131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
         <v>3548708</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>11</v>
@@ -4291,14 +4687,17 @@
       <c r="I132" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="J132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
         <v>3548807</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C133" s="1" t="s">
         <v>10</v>
       </c>
@@ -4312,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>11</v>
@@ -4320,19 +4719,22 @@
       <c r="I133" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="J133" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
         <v>3549805</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>11</v>
@@ -4349,14 +4751,17 @@
       <c r="I134" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="J134" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
         <v>3549904</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C135" s="1" t="s">
         <v>10</v>
       </c>
@@ -4364,13 +4769,13 @@
         <v>10</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>11</v>
@@ -4378,16 +4783,19 @@
       <c r="I135" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="J135" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
         <v>3549953</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
@@ -4396,10 +4804,10 @@
         <v>11</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>11</v>
@@ -4407,14 +4815,17 @@
       <c r="I136" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="J136" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
         <v>3550209</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>11</v>
       </c>
@@ -4428,22 +4839,25 @@
         <v>11</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="J137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
         <v>3550308</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>10</v>
       </c>
@@ -4454,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>11</v>
@@ -4463,21 +4877,24 @@
         <v>11</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+        <v>11</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
         <v>3550902</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>11</v>
@@ -4494,19 +4911,22 @@
       <c r="I139" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="J139" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
         <v>3551009</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>11</v>
@@ -4523,14 +4943,17 @@
       <c r="I140" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="J140" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
         <v>3552205</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>10</v>
       </c>
@@ -4544,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>11</v>
@@ -4552,22 +4975,25 @@
       <c r="I141" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="J141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
         <v>3552304</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>10</v>
@@ -4579,24 +5005,27 @@
         <v>10</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+        <v>10</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
         <v>3552304</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>10</v>
@@ -4608,21 +5037,24 @@
         <v>10</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+        <v>10</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
         <v>3552403</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>10</v>
@@ -4631,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>11</v>
@@ -4639,13 +5071,16 @@
       <c r="I144" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="J144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
         <v>3552502</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>9</v>
@@ -4668,19 +5103,22 @@
       <c r="I145" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="J145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
         <v>3552551</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>11</v>
@@ -4697,28 +5135,31 @@
       <c r="I146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="J146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
         <v>3552700</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C147" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>11</v>
@@ -4726,74 +5167,83 @@
       <c r="I147" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="J147" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
         <v>3552809</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+        <v>10</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
         <v>3554003</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+        <v>11</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
         <v>3554102</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>10</v>
@@ -4802,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>11</v>
@@ -4813,19 +5263,22 @@
       <c r="I150" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="J150" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
         <v>4104709</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>11</v>
@@ -4842,48 +5295,54 @@
       <c r="I151" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="J151" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
         <v>4104808</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
         <v>4106852</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>11</v>
@@ -4900,16 +5359,19 @@
       <c r="I153" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="J153" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
         <v>4106902</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
@@ -4929,19 +5391,22 @@
       <c r="I154" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="J154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
         <v>4113601</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>11</v>
@@ -4950,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>10</v>
@@ -4958,16 +5423,19 @@
       <c r="I155" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="J155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
         <v>4113700</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>10</v>
@@ -4985,16 +5453,19 @@
         <v>10</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+        <v>10</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
         <v>4115200</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C157" s="1" t="s">
         <v>10</v>
       </c>
@@ -5011,50 +5482,56 @@
         <v>10</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="J157" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
         <v>4115309</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+        <v>10</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
         <v>4117602</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
@@ -5074,19 +5551,22 @@
       <c r="I159" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="J159" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
         <v>4117701</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>11</v>
@@ -5095,22 +5575,25 @@
         <v>11</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+        <v>10</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
         <v>4119806</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C161" s="1" t="s">
         <v>11</v>
       </c>
@@ -5124,27 +5607,30 @@
         <v>11</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+        <v>10</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
         <v>4119905</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C162" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>11</v>
@@ -5153,22 +5639,25 @@
         <v>11</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="J162" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
         <v>4125456</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C163" s="1" t="s">
         <v>11</v>
       </c>
@@ -5188,16 +5677,19 @@
         <v>11</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+        <v>11</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
         <v>4125506</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C164" s="1" t="s">
         <v>11</v>
       </c>
@@ -5208,25 +5700,28 @@
         <v>11</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+        <v>11</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
         <v>4202404</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C165" s="1" t="s">
         <v>10</v>
       </c>
@@ -5234,28 +5729,31 @@
         <v>10</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+        <v>11</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
         <v>4202438</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C166" s="1" t="s">
         <v>11</v>
       </c>
@@ -5269,22 +5767,25 @@
         <v>11</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="J166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
         <v>4205357</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C167" s="1" t="s">
         <v>11</v>
       </c>
@@ -5298,24 +5799,27 @@
         <v>11</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="J167" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
         <v>4205407</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
@@ -5335,19 +5839,22 @@
       <c r="I168" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="J168" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
         <v>4209003</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>11</v>
@@ -5364,22 +5871,25 @@
       <c r="I169" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+      <c r="J169" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
         <v>4209102</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>10</v>
@@ -5388,27 +5898,30 @@
         <v>10</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+        <v>11</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
         <v>4213708</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>10</v>
@@ -5422,16 +5935,19 @@
       <c r="I171" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+      <c r="J171" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
         <v>4213807</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -5451,28 +5967,31 @@
       <c r="I172" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="J172" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
         <v>4304507</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>11</v>
@@ -5480,14 +5999,17 @@
       <c r="I173" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="J173" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
         <v>4304606</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
@@ -5501,22 +6023,25 @@
         <v>10</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="J174" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
         <v>4305009</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C175" s="1" t="s">
         <v>11</v>
       </c>
@@ -5530,27 +6055,30 @@
         <v>11</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+        <v>11</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
         <v>4305108</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>11</v>
@@ -5567,28 +6095,31 @@
       <c r="I176" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+      <c r="J176" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
         <v>4309209</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>11</v>
@@ -5596,14 +6127,17 @@
       <c r="I177" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="J177" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
         <v>4309258</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C178" s="1" t="s">
         <v>11</v>
       </c>
@@ -5617,22 +6151,25 @@
         <v>11</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+      <c r="J178" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
         <v>4314308</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C179" s="1" t="s">
         <v>11</v>
       </c>
@@ -5643,39 +6180,42 @@
         <v>11</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+        <v>11</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
         <v>4314407</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>11</v>
@@ -5683,43 +6223,49 @@
       <c r="I180" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="J180" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
         <v>4314803</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+        <v>10</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
         <v>4314902</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C182" s="1" t="s">
         <v>10</v>
       </c>
@@ -5727,65 +6273,71 @@
         <v>10</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+        <v>11</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
         <v>5002605</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C183" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+        <v>10</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
         <v>5002704</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C184" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>11</v>
@@ -5794,19 +6346,22 @@
         <v>11</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+        <v>10</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
         <v>5103379</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C185" s="1" t="s">
         <v>11</v>
       </c>
@@ -5820,22 +6375,25 @@
         <v>11</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+      <c r="J185" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
         <v>5103403</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C186" s="1" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>11</v>
@@ -5857,22 +6415,25 @@
       <c r="I186" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+      <c r="J186" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
         <v>5108402</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C187" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>10</v>
@@ -5881,19 +6442,22 @@
         <v>10</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="J187" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
         <v>5108501</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C188" s="1" t="s">
         <v>10</v>
       </c>
@@ -5901,57 +6465,63 @@
         <v>10</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+        <v>10</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
         <v>5200902</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C189" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="J189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
         <v>5201108</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C190" s="1" t="s">
         <v>10</v>
       </c>
@@ -5965,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>11</v>
@@ -5973,14 +6543,17 @@
       <c r="I190" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+      <c r="J190" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
         <v>5201306</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C191" s="1" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +6564,7 @@
         <v>11</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>10</v>
@@ -6002,14 +6575,17 @@
       <c r="I191" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+      <c r="J191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
         <v>5201405</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C192" s="1" t="s">
         <v>10</v>
       </c>
@@ -6017,28 +6593,31 @@
         <v>10</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+        <v>11</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
         <v>5208608</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C193" s="1" t="s">
         <v>11</v>
       </c>
@@ -6046,7 +6625,7 @@
         <v>11</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>10</v>
@@ -6060,14 +6639,17 @@
       <c r="I193" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+      <c r="J193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
         <v>5208707</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C194" s="1" t="s">
         <v>10</v>
       </c>
@@ -6084,19 +6666,22 @@
         <v>10</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+      <c r="J194" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
         <v>5222302</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C195" s="1" t="s">
         <v>11</v>
       </c>
@@ -6110,24 +6695,27 @@
         <v>11</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+      <c r="J195" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
         <v>5300108</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>11</v>
@@ -6139,12 +6727,15 @@
         <v>11</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J196" s="1" t="s">
         <v>10</v>
       </c>
     </row>
